--- a/mod/z02_clipit_api/libraries/performance_palette/performance_palette_sv.xlsx
+++ b/mod/z02_clipit_api/libraries/performance_palette/performance_palette_sv.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pebs74\Documents\PhpstormProjects\clipit_master\mod\z02_clipit_api\libraries\performance_palette\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pebs74\sync_pebs\URJC\PhpstormProjects\clipit_master\mod\z02_clipit_api\libraries\performance_palette\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="118">
   <si>
     <t>category</t>
   </si>
@@ -366,12 +366,6 @@
     <t>Concept of family such as in The Godfather (1972)</t>
   </si>
   <si>
-    <t>language</t>
-  </si>
-  <si>
-    <t>reference</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -379,9 +373,6 @@
   </si>
   <si>
     <t>example</t>
-  </si>
-  <si>
-    <t>sv</t>
   </si>
 </sst>
 </file>
@@ -782,899 +773,663 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B39"/>
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.7109375" customWidth="1"/>
-    <col min="5" max="5" width="55.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="79.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.7109375" customWidth="1"/>
+    <col min="3" max="3" width="55.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="79.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" t="s">
         <v>116</v>
-      </c>
-      <c r="B1" t="s">
-        <v>115</v>
       </c>
       <c r="C1" t="s">
         <v>117</v>
       </c>
       <c r="D1" t="s">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
+      <c r="E3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
         <v>2</v>
       </c>
-      <c r="G3" t="s">
+      <c r="E5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
         <v>2</v>
       </c>
-      <c r="G4" t="s">
+      <c r="E7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
         <v>2</v>
       </c>
-      <c r="G5" t="s">
+      <c r="E8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>120</v>
-      </c>
-      <c r="C14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>120</v>
-      </c>
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>120</v>
-      </c>
-      <c r="C17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>120</v>
-      </c>
-      <c r="C18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>120</v>
-      </c>
-      <c r="C19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>120</v>
-      </c>
-      <c r="C20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" t="s">
-        <v>56</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>120</v>
-      </c>
-      <c r="C21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>120</v>
-      </c>
-      <c r="C22" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" t="s">
-        <v>62</v>
-      </c>
-      <c r="F22" t="s">
-        <v>40</v>
-      </c>
-      <c r="G22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>120</v>
-      </c>
-      <c r="C23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" t="s">
-        <v>65</v>
-      </c>
-      <c r="F23" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>120</v>
-      </c>
-      <c r="C24" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" t="s">
-        <v>68</v>
-      </c>
-      <c r="F24" t="s">
-        <v>40</v>
-      </c>
-      <c r="G24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>120</v>
-      </c>
-      <c r="C25" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E25" t="s">
-        <v>71</v>
-      </c>
-      <c r="F25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>120</v>
-      </c>
-      <c r="C26" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" t="s">
-        <v>73</v>
-      </c>
-      <c r="E26" t="s">
-        <v>74</v>
-      </c>
-      <c r="F26" t="s">
-        <v>40</v>
-      </c>
-      <c r="G26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>120</v>
-      </c>
-      <c r="C27" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" t="s">
-        <v>76</v>
-      </c>
-      <c r="E27" t="s">
-        <v>77</v>
-      </c>
-      <c r="F27" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>120</v>
-      </c>
-      <c r="C28" t="s">
-        <v>78</v>
-      </c>
-      <c r="D28" t="s">
-        <v>79</v>
-      </c>
-      <c r="E28" t="s">
-        <v>80</v>
-      </c>
-      <c r="F28" t="s">
-        <v>40</v>
-      </c>
-      <c r="G28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>120</v>
-      </c>
-      <c r="C29" t="s">
-        <v>81</v>
-      </c>
-      <c r="D29" t="s">
-        <v>82</v>
-      </c>
-      <c r="E29" t="s">
-        <v>83</v>
-      </c>
-      <c r="F29" t="s">
-        <v>40</v>
-      </c>
-      <c r="G29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>120</v>
-      </c>
-      <c r="C30" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" t="s">
-        <v>85</v>
-      </c>
-      <c r="E30" t="s">
-        <v>86</v>
-      </c>
-      <c r="F30" t="s">
-        <v>40</v>
-      </c>
-      <c r="G30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>120</v>
-      </c>
-      <c r="C31" t="s">
-        <v>87</v>
-      </c>
-      <c r="D31" t="s">
-        <v>88</v>
-      </c>
-      <c r="E31" t="s">
-        <v>89</v>
-      </c>
-      <c r="F31" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>31</v>
-      </c>
       <c r="B32" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="D32" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="E32" t="s">
-        <v>91</v>
-      </c>
-      <c r="F32" t="s">
-        <v>40</v>
-      </c>
-      <c r="G32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>32</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>92</v>
       </c>
       <c r="B33" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="C33" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D33" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="E33" t="s">
-        <v>94</v>
-      </c>
-      <c r="F33" t="s">
-        <v>40</v>
-      </c>
-      <c r="G33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>33</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>95</v>
       </c>
       <c r="B34" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="C34" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D34" t="s">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="E34" t="s">
-        <v>97</v>
-      </c>
-      <c r="F34" t="s">
-        <v>40</v>
-      </c>
-      <c r="G34" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>34</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>98</v>
       </c>
       <c r="B35" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C35" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D35" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="E35" t="s">
-        <v>100</v>
-      </c>
-      <c r="F35" t="s">
-        <v>40</v>
-      </c>
-      <c r="G35" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>35</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>103</v>
       </c>
       <c r="B36" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C36" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D36" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E36" t="s">
-        <v>105</v>
-      </c>
-      <c r="F36" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" t="s">
         <v>101</v>
       </c>
-      <c r="G36" t="s">
+      <c r="E37" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>120</v>
-      </c>
-      <c r="C37" t="s">
-        <v>106</v>
-      </c>
-      <c r="D37" t="s">
-        <v>107</v>
-      </c>
-      <c r="E37" t="s">
-        <v>108</v>
-      </c>
-      <c r="F37" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" t="s">
         <v>101</v>
       </c>
-      <c r="G37" t="s">
+      <c r="E38" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>120</v>
-      </c>
-      <c r="C38" t="s">
-        <v>109</v>
-      </c>
-      <c r="D38" t="s">
-        <v>110</v>
-      </c>
-      <c r="E38" t="s">
-        <v>111</v>
-      </c>
-      <c r="F38" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" t="s">
         <v>101</v>
       </c>
-      <c r="G38" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>120</v>
-      </c>
-      <c r="C39" t="s">
-        <v>112</v>
-      </c>
-      <c r="D39" t="s">
-        <v>113</v>
-      </c>
       <c r="E39" t="s">
-        <v>114</v>
-      </c>
-      <c r="F39" t="s">
-        <v>101</v>
-      </c>
-      <c r="G39" t="s">
         <v>102</v>
       </c>
     </row>
